--- a/Reference/CompilerVariableMappings.xlsx
+++ b/Reference/CompilerVariableMappings.xlsx
@@ -435,18 +435,18 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -480,7 +480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -502,7 +502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -516,7 +516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -533,7 +533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>11</v>
       </c>
@@ -541,7 +541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -558,7 +558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -569,7 +569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -583,7 +583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -597,7 +597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>16</v>
       </c>
@@ -611,7 +611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -628,7 +628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -642,7 +642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>0</v>
       </c>
